--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848846.4371827187</v>
+        <v>848133.8327086781</v>
       </c>
     </row>
     <row r="7">
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>81.67595429314068</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16.53078872718767</v>
+      </c>
+      <c r="S11" t="n">
+        <v>49.17968824550869</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>71.82086528673102</v>
+      </c>
+      <c r="V11" t="n">
+        <v>142.5501342845968</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>181.4530649701509</v>
+      </c>
+      <c r="Y11" t="n">
         <v>188.5623770505817</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>103.1085194173071</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>168.6883080494461</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62.66716559384194</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>49.17968824550866</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>159.5668145012116</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810671</v>
+        <v>9.188502199810699</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705461</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851664</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437492</v>
+        <v>110.7275087892342</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084699</v>
+        <v>62.31927159084702</v>
       </c>
       <c r="W12" t="n">
-        <v>188.5623770505817</v>
+        <v>88.37493425245637</v>
       </c>
       <c r="X12" t="n">
-        <v>121.8853997847822</v>
+        <v>38.98326511491538</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.5623770505817</v>
+        <v>45.0546368094704</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650159</v>
+        <v>25.09353465650162</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412741</v>
+        <v>57.10576830412744</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605257</v>
+        <v>45.4312651160526</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989468</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368731</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961317</v>
+        <v>38.8116234896132</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718773</v>
+        <v>16.53078872718775</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550875</v>
+        <v>49.17968824550878</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673111</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
-        <v>86.7020348736593</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>94.44071121384511</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810756</v>
+        <v>9.188502199810785</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851673</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="T15" t="n">
-        <v>172.000868938269</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437501</v>
+        <v>58.89840834437504</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084708</v>
+        <v>62.31927159084711</v>
       </c>
       <c r="W15" t="n">
-        <v>188.5623770505817</v>
+        <v>140.2040346973153</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491544</v>
+        <v>38.98326511491547</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.5623770505817</v>
+        <v>45.05463680947048</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650168</v>
+        <v>25.09353465650171</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412749</v>
+        <v>57.10576830412752</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605266</v>
+        <v>45.43126511605269</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226099</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989474</v>
+        <v>66.77936585989477</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368736</v>
+        <v>43.58980608368739</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961325</v>
+        <v>38.81162348961328</v>
       </c>
     </row>
     <row r="17">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>17.34131701649381</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>188.5623770505817</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="V18" t="n">
         <v>188.5623770505817</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.5623770505817</v>
+        <v>24.53059687504975</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R21" t="n">
-        <v>53.20806164380865</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>188.5623770505817</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>41.26540208583184</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
     </row>
     <row r="22">
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>61.11604128637163</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="U24" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>188.5623770505817</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>31.37710335571822</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098007</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131462</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741946</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
         <v>189.7322729719808</v>
@@ -2570,10 +2570,10 @@
         <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036453</v>
+        <v>27.52983825036447</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203125</v>
+        <v>14.0423609020312</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177615</v>
+        <v>8.997433817177559</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325359</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411194</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266735</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8185907504172</v>
@@ -2634,10 +2634,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>81.02775451070909</v>
+        <v>98.64492475618552</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870632</v>
+        <v>1.503222277870575</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736959</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897893</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437946</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992957</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096065</v>
+        <v>21.96844096064994</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257516</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913233</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641724</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130267</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X28" t="n">
-        <v>8.45247874020987</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135759</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
         <v>205.3708602775721</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036445</v>
+        <v>27.52983825036447</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203117</v>
+        <v>14.0423609020312</v>
       </c>
       <c r="T29" t="n">
-        <v>8.99743381717753</v>
+        <v>8.997433817177559</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870547</v>
+        <v>1.503222277870575</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X30" t="n">
-        <v>3.84593777143786</v>
+        <v>72.62088673792488</v>
       </c>
       <c r="Y30" t="n">
-        <v>179.7895326149456</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064991</v>
+        <v>21.96844096064994</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>124.3051829741947</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936036</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719809</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775722</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059688</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036458</v>
+        <v>27.52983825036455</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203131</v>
+        <v>14.04236090203128</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177665</v>
+        <v>8.997433817177637</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325364</v>
+        <v>36.68353794325361</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411194</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870689</v>
+        <v>1.503222277870661</v>
       </c>
       <c r="U33" t="n">
-        <v>227.2446683178182</v>
+        <v>227.2446683178183</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3171,10 +3171,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771438003</v>
+        <v>3.845937771437974</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465993014</v>
+        <v>9.917309465992986</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096065006</v>
+        <v>21.96844096065003</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257522</v>
+        <v>10.29393777257519</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913239</v>
+        <v>75.18957207913236</v>
       </c>
       <c r="V34" t="n">
-        <v>31.6420385164173</v>
+        <v>31.64203851641727</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130272</v>
+        <v>76.84373042130269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209926</v>
+        <v>8.452478740209898</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135816</v>
+        <v>3.674296146135788</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>21.08020161175849</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>176.7137751823592</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>30.36148475540283</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705461</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>13.81861410669502</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3861,25 +3861,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5874518930719</v>
+        <v>100.9559930020173</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>80.37116515901394</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>28.22731787162478</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,22 +4098,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668431</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>125.5881347614876</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>25.70776865861441</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.9274073969714</v>
+        <v>97.58595409651188</v>
       </c>
       <c r="C11" t="n">
-        <v>352.9274073969714</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D11" t="n">
-        <v>352.9274073969714</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E11" t="n">
-        <v>352.9274073969714</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F11" t="n">
-        <v>248.7773877835294</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G11" t="n">
-        <v>248.7773877835294</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055351</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404654</v>
@@ -5042,19 +5042,19 @@
         <v>15.08499016404654</v>
       </c>
       <c r="K11" t="n">
-        <v>185.0137379722659</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L11" t="n">
-        <v>231.78707620256</v>
+        <v>201.7617434441225</v>
       </c>
       <c r="M11" t="n">
-        <v>418.4638294826359</v>
+        <v>388.4384967241984</v>
       </c>
       <c r="N11" t="n">
-        <v>493.8510794158742</v>
+        <v>463.8257466574366</v>
       </c>
       <c r="O11" t="n">
-        <v>666.481851838138</v>
+        <v>504.828715160204</v>
       </c>
       <c r="P11" t="n">
         <v>666.481851838138</v>
@@ -5063,28 +5063,28 @@
         <v>754.249508202327</v>
       </c>
       <c r="R11" t="n">
-        <v>754.249508202327</v>
+        <v>737.5517418112283</v>
       </c>
       <c r="S11" t="n">
-        <v>704.5730554290859</v>
+        <v>687.8752890379873</v>
       </c>
       <c r="T11" t="n">
-        <v>704.5730554290859</v>
+        <v>687.8752890379873</v>
       </c>
       <c r="U11" t="n">
-        <v>704.5730554290859</v>
+        <v>615.3289604655315</v>
       </c>
       <c r="V11" t="n">
-        <v>704.5730554290859</v>
+        <v>471.3389258346257</v>
       </c>
       <c r="W11" t="n">
-        <v>543.3944549228115</v>
+        <v>471.3389258346257</v>
       </c>
       <c r="X11" t="n">
-        <v>543.3944549228115</v>
+        <v>288.053001622352</v>
       </c>
       <c r="Y11" t="n">
-        <v>543.3944549228115</v>
+        <v>97.58595409651188</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.35437081744581</v>
+        <v>24.36630551739068</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0730554641017</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404654</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635127</v>
+        <v>53.07705719635133</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681697</v>
@@ -5145,25 +5145,25 @@
         <v>754.249508202327</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361486</v>
+        <v>563.7824606764868</v>
       </c>
       <c r="T12" t="n">
-        <v>703.8471322529687</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="U12" t="n">
-        <v>644.3537904909738</v>
+        <v>261.4694446766727</v>
       </c>
       <c r="V12" t="n">
-        <v>581.4050313083001</v>
+        <v>198.5206854939989</v>
       </c>
       <c r="W12" t="n">
-        <v>390.9379837824599</v>
+        <v>109.2530751379824</v>
       </c>
       <c r="X12" t="n">
-        <v>267.821418343286</v>
+        <v>69.87603966837088</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.35437081744581</v>
+        <v>24.36630551739068</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.08499016404654</v>
       </c>
       <c r="C13" t="n">
-        <v>26.83873383310361</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D13" t="n">
-        <v>26.83873383310361</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E13" t="n">
-        <v>63.12570686431057</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F13" t="n">
-        <v>102.1344462993581</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1344462993581</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H13" t="n">
-        <v>114.5159721399658</v>
+        <v>27.46651600465425</v>
       </c>
       <c r="I13" t="n">
-        <v>127.8623739888762</v>
+        <v>40.81291785356462</v>
       </c>
       <c r="J13" t="n">
-        <v>127.8623739888762</v>
+        <v>40.81291785356462</v>
       </c>
       <c r="K13" t="n">
-        <v>238.066382949874</v>
+        <v>104.2320467439802</v>
       </c>
       <c r="L13" t="n">
-        <v>238.066382949874</v>
+        <v>248.9702861992382</v>
       </c>
       <c r="M13" t="n">
-        <v>389.6714297020745</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="N13" t="n">
-        <v>389.6714297020745</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="O13" t="n">
-        <v>400.5753329514384</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612857</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612857</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577487</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111553</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272638</v>
       </c>
       <c r="U13" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791731</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701886</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980462</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456489</v>
+        <v>54.28865025456492</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404654</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>409.8304285084509</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="C14" t="n">
-        <v>409.8304285084509</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="D14" t="n">
-        <v>248.7773877835295</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="E14" t="n">
-        <v>248.7773877835295</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="F14" t="n">
-        <v>248.7773877835295</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="G14" t="n">
-        <v>248.7773877835295</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055365</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404654</v>
       </c>
       <c r="J14" t="n">
-        <v>15.08499016404654</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>185.0137379722658</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="L14" t="n">
-        <v>231.7870762025599</v>
+        <v>162.4191122870027</v>
       </c>
       <c r="M14" t="n">
-        <v>418.4638294826358</v>
+        <v>349.0958655670787</v>
       </c>
       <c r="N14" t="n">
-        <v>493.8510794158741</v>
+        <v>535.7726188471546</v>
       </c>
       <c r="O14" t="n">
-        <v>666.481851838138</v>
+        <v>570.0493024805843</v>
       </c>
       <c r="P14" t="n">
-        <v>666.481851838138</v>
+        <v>731.7024391585182</v>
       </c>
       <c r="Q14" t="n">
         <v>754.249508202327</v>
@@ -5309,19 +5309,19 @@
         <v>687.875289037987</v>
       </c>
       <c r="U14" t="n">
-        <v>687.875289037987</v>
+        <v>615.3289604655314</v>
       </c>
       <c r="V14" t="n">
-        <v>687.875289037987</v>
+        <v>471.3389258346255</v>
       </c>
       <c r="W14" t="n">
-        <v>600.2974760342911</v>
+        <v>471.3389258346255</v>
       </c>
       <c r="X14" t="n">
-        <v>600.2974760342911</v>
+        <v>375.9442680428627</v>
       </c>
       <c r="Y14" t="n">
-        <v>600.2974760342911</v>
+        <v>375.9442680428627</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.36630551739074</v>
+        <v>24.36630551739077</v>
       </c>
       <c r="C15" t="n">
         <v>15.08499016404654</v>
@@ -5382,25 +5382,25 @@
         <v>754.249508202327</v>
       </c>
       <c r="S15" t="n">
-        <v>740.8577884361484</v>
+        <v>563.7824606764868</v>
       </c>
       <c r="T15" t="n">
-        <v>567.1195369833515</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="U15" t="n">
-        <v>507.6261952213565</v>
+        <v>313.8220713886517</v>
       </c>
       <c r="V15" t="n">
-        <v>444.6774360386827</v>
+        <v>250.8733122059778</v>
       </c>
       <c r="W15" t="n">
-        <v>254.2103885128425</v>
+        <v>109.2530751379826</v>
       </c>
       <c r="X15" t="n">
-        <v>214.8333530432309</v>
+        <v>69.87603966837105</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.36630551739074</v>
+        <v>24.36630551739077</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>15.08499016404654</v>
       </c>
       <c r="C16" t="n">
-        <v>26.83873383310353</v>
+        <v>26.8387338331035</v>
       </c>
       <c r="D16" t="n">
-        <v>26.83873383310353</v>
+        <v>26.8387338331035</v>
       </c>
       <c r="E16" t="n">
-        <v>26.83873383310353</v>
+        <v>63.12570686431034</v>
       </c>
       <c r="F16" t="n">
-        <v>65.84747326815095</v>
+        <v>63.12570686431034</v>
       </c>
       <c r="G16" t="n">
-        <v>75.38020814000086</v>
+        <v>63.12570686431034</v>
       </c>
       <c r="H16" t="n">
-        <v>75.38020814000086</v>
+        <v>75.50723270491797</v>
       </c>
       <c r="I16" t="n">
-        <v>88.72660998891118</v>
+        <v>75.50723270491797</v>
       </c>
       <c r="J16" t="n">
-        <v>146.2463010555228</v>
+        <v>75.50723270491797</v>
       </c>
       <c r="K16" t="n">
-        <v>146.2463010555228</v>
+        <v>185.7112416659157</v>
       </c>
       <c r="L16" t="n">
-        <v>198.3562544639991</v>
+        <v>228.1775243899983</v>
       </c>
       <c r="M16" t="n">
-        <v>349.9613012161996</v>
+        <v>379.7825711421987</v>
       </c>
       <c r="N16" t="n">
-        <v>349.9613012161996</v>
+        <v>379.7825711421987</v>
       </c>
       <c r="O16" t="n">
-        <v>349.9613012161996</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260465</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612862</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577491</v>
+        <v>493.8989154577492</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111557</v>
+        <v>436.2163212111558</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272641</v>
+        <v>390.3261544272642</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791733</v>
+        <v>278.8848418791735</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701888</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980473</v>
+        <v>98.31875740980479</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456498</v>
+        <v>54.28865025456501</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404654</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340416</v>
+        <v>463.5335379340418</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844278</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D17" t="n">
-        <v>369.464372843856</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372146</v>
+        <v>294.6620291372145</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019092</v>
+        <v>187.8189404019091</v>
       </c>
       <c r="G17" t="n">
         <v>65.179298832673</v>
@@ -5510,34 +5510,34 @@
         <v>15.08499016404654</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897387</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J17" t="n">
-        <v>70.94848926897387</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K17" t="n">
-        <v>70.94848926897387</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L17" t="n">
-        <v>228.648662020549</v>
+        <v>61.85832839434065</v>
       </c>
       <c r="M17" t="n">
-        <v>309.5689727437009</v>
+        <v>142.7786391174926</v>
       </c>
       <c r="N17" t="n">
-        <v>384.9562226769391</v>
+        <v>218.1658890507308</v>
       </c>
       <c r="O17" t="n">
-        <v>419.2329063103689</v>
+        <v>252.4425726841606</v>
       </c>
       <c r="P17" t="n">
-        <v>419.2329063103689</v>
+        <v>439.1193259642365</v>
       </c>
       <c r="Q17" t="n">
-        <v>605.9096595904448</v>
+        <v>625.7960792443124</v>
       </c>
       <c r="R17" t="n">
-        <v>707.4481717933598</v>
+        <v>638.2320701135826</v>
       </c>
       <c r="S17" t="n">
         <v>707.4481717933598</v>
@@ -5549,16 +5549,16 @@
         <v>754.249508202327</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557705</v>
+        <v>730.5573952557706</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338455</v>
+        <v>689.6767164338457</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059213</v>
+        <v>626.6887139059215</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075489</v>
+        <v>540.970556707549</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.8483656248065</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="C18" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D18" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E18" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F18" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G18" t="n">
         <v>15.08499016404654</v>
@@ -5595,7 +5595,7 @@
         <v>15.08499016404654</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635127</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681697</v>
@@ -5604,7 +5604,7 @@
         <v>352.1703666486679</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287438</v>
+        <v>538.847119928744</v>
       </c>
       <c r="O18" t="n">
         <v>670.5904072110309</v>
@@ -5613,31 +5613,31 @@
         <v>754.249508202327</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.249508202327</v>
+        <v>747.3338450905406</v>
       </c>
       <c r="R18" t="n">
-        <v>754.249508202327</v>
+        <v>611.2645134234355</v>
       </c>
       <c r="S18" t="n">
-        <v>754.249508202327</v>
+        <v>611.2645134234355</v>
       </c>
       <c r="T18" t="n">
-        <v>563.7824606764868</v>
+        <v>420.7974658975953</v>
       </c>
       <c r="U18" t="n">
-        <v>563.7824606764868</v>
+        <v>230.3304183717551</v>
       </c>
       <c r="V18" t="n">
-        <v>373.3154131506467</v>
+        <v>39.86337084591497</v>
       </c>
       <c r="W18" t="n">
-        <v>373.3154131506467</v>
+        <v>39.86337084591497</v>
       </c>
       <c r="X18" t="n">
-        <v>182.8483656248065</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Y18" t="n">
-        <v>182.8483656248065</v>
+        <v>15.08499016404654</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340418</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844276</v>
+        <v>410.219491884428</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438558</v>
+        <v>369.464372843856</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372146</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019089</v>
+        <v>187.8189404019092</v>
       </c>
       <c r="G20" t="n">
         <v>65.179298832673</v>
@@ -5747,55 +5747,55 @@
         <v>15.08499016404654</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897387</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J20" t="n">
-        <v>70.94848926897387</v>
+        <v>81.03204867165346</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490497</v>
+        <v>81.03204867165346</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793439</v>
+        <v>127.8053869019476</v>
       </c>
       <c r="M20" t="n">
-        <v>491.0753340594198</v>
+        <v>314.4821401820235</v>
       </c>
       <c r="N20" t="n">
-        <v>566.462583992658</v>
+        <v>389.8693901152618</v>
       </c>
       <c r="O20" t="n">
-        <v>600.7392676260877</v>
+        <v>424.1460737486915</v>
       </c>
       <c r="P20" t="n">
-        <v>600.7392676260877</v>
+        <v>610.8228270287674</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.2375922995773</v>
+        <v>610.8228270287674</v>
       </c>
       <c r="R20" t="n">
-        <v>633.2375922995773</v>
+        <v>610.8228270287674</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995773</v>
+        <v>680.0389287085446</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933596</v>
+        <v>754.249508202327</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023268</v>
+        <v>754.249508202327</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557703</v>
+        <v>730.5573952557704</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338453</v>
+        <v>689.6767164338455</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059213</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075487</v>
+        <v>540.9705567075489</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>331.5010909376236</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="C21" t="n">
-        <v>142.0888166705873</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="D21" t="n">
-        <v>142.0888166705873</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="E21" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F21" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G21" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H21" t="n">
         <v>15.08499016404654</v>
@@ -5832,49 +5832,49 @@
         <v>15.08499016404654</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635111</v>
+        <v>53.07705719635127</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486679</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287438</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110307</v>
+        <v>670.5904072110309</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023268</v>
+        <v>754.249508202327</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023268</v>
+        <v>747.3338450905406</v>
       </c>
       <c r="R21" t="n">
-        <v>700.5039913903988</v>
+        <v>611.2645134234355</v>
       </c>
       <c r="S21" t="n">
-        <v>700.5039913903988</v>
+        <v>611.2645134234355</v>
       </c>
       <c r="T21" t="n">
-        <v>510.0369438645587</v>
+        <v>611.2645134234355</v>
       </c>
       <c r="U21" t="n">
-        <v>510.0369438645587</v>
+        <v>420.7974658975953</v>
       </c>
       <c r="V21" t="n">
-        <v>510.0369438645587</v>
+        <v>420.7974658975953</v>
       </c>
       <c r="W21" t="n">
-        <v>510.0369438645587</v>
+        <v>379.1152415684722</v>
       </c>
       <c r="X21" t="n">
-        <v>510.0369438645587</v>
+        <v>379.1152415684722</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.0369438645587</v>
+        <v>188.6481940426321</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340418</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C23" t="n">
-        <v>410.219491884428</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438559</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E23" t="n">
         <v>294.6620291372142</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
         <v>65.179298832673</v>
@@ -5987,52 +5987,52 @@
         <v>15.08499016404654</v>
       </c>
       <c r="J23" t="n">
-        <v>132.1904367859797</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K23" t="n">
-        <v>132.1904367859797</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L23" t="n">
-        <v>178.9637750162738</v>
+        <v>201.7617434441224</v>
       </c>
       <c r="M23" t="n">
-        <v>259.8840857394257</v>
+        <v>282.6820541672743</v>
       </c>
       <c r="N23" t="n">
-        <v>446.5608390195016</v>
+        <v>358.0693041005126</v>
       </c>
       <c r="O23" t="n">
-        <v>633.2375922995775</v>
+        <v>544.7460573805885</v>
       </c>
       <c r="P23" t="n">
-        <v>633.2375922995775</v>
+        <v>544.7460573805885</v>
       </c>
       <c r="Q23" t="n">
-        <v>633.2375922995775</v>
+        <v>544.7460573805885</v>
       </c>
       <c r="R23" t="n">
-        <v>633.2375922995775</v>
+        <v>646.2845695835035</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995775</v>
+        <v>680.0389287085444</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933598</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="U23" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557704</v>
+        <v>730.5573952557703</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338457</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059215</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.970556707549</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="C24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F24" t="n">
-        <v>76.81836520078556</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G24" t="n">
         <v>15.08499016404654</v>
@@ -6069,49 +6069,49 @@
         <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635127</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.847119928744</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110309</v>
+        <v>670.5904072110307</v>
       </c>
       <c r="P24" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352218</v>
+        <v>618.1801765352216</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352218</v>
+        <v>427.7131290093815</v>
       </c>
       <c r="T24" t="n">
-        <v>618.1801765352218</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="U24" t="n">
-        <v>427.7131290093816</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="V24" t="n">
-        <v>237.2460814835415</v>
+        <v>46.7790339577013</v>
       </c>
       <c r="W24" t="n">
-        <v>237.2460814835415</v>
+        <v>46.7790339577013</v>
       </c>
       <c r="X24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Y24" t="n">
-        <v>237.2460814835415</v>
+        <v>15.08499016404654</v>
       </c>
     </row>
     <row r="25">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792738</v>
+        <v>882.8924400792735</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962487</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471543</v>
       </c>
       <c r="F26" t="n">
         <v>406.0748730693959</v>
@@ -6218,22 +6218,22 @@
         <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J26" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.983101562984</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946305</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6245,7 +6245,7 @@
         <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R26" t="n">
         <v>1796.083086100843</v>
@@ -6257,19 +6257,19 @@
         <v>1772.81056618245</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662882</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
         <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>278.547994638469</v>
+        <v>135.562999859578</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K27" t="n">
-        <v>73.9137287543216</v>
+        <v>73.91372875432158</v>
       </c>
       <c r="L27" t="n">
         <v>191.28529372614</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740712</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740712</v>
+        <v>786.4450312622848</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740712</v>
+        <v>650.3756995951796</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740712</v>
+        <v>650.3756995951796</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327877</v>
+        <v>648.8572932538963</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873571006</v>
+        <v>624.8562013337978</v>
       </c>
       <c r="V27" t="n">
-        <v>524.7614780163232</v>
+        <v>597.3996919930205</v>
       </c>
       <c r="W27" t="n">
-        <v>470.986117502203</v>
+        <v>328.0011227233118</v>
       </c>
       <c r="X27" t="n">
-        <v>467.1013318744879</v>
+        <v>324.1163370955968</v>
       </c>
       <c r="Y27" t="n">
-        <v>457.0838475654041</v>
+        <v>314.0988527865131</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C28" t="n">
-        <v>82.46135946111657</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L28" t="n">
-        <v>180.8898523171617</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M28" t="n">
-        <v>180.8898523171617</v>
+        <v>112.833296842554</v>
       </c>
       <c r="N28" t="n">
-        <v>180.8898523171617</v>
+        <v>112.833296842554</v>
       </c>
       <c r="O28" t="n">
-        <v>180.8898523171617</v>
+        <v>112.833296842554</v>
       </c>
       <c r="P28" t="n">
-        <v>180.8898523171617</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224442</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224442</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177472</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757521</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695578</v>
+        <v>157.7525140695576</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024697</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398215</v>
+        <v>48.17092928398202</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063885</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792743</v>
+        <v>882.8924400792735</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962495</v>
+        <v>757.3316491962487</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471551</v>
+        <v>597.7236336471543</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693967</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577078</v>
+        <v>198.629559657707</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662741</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
         <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191346</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6494,19 +6494,19 @@
         <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
         <v>1627.258702662881</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>494.2032890183457</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C30" t="n">
-        <v>304.7910147513094</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D30" t="n">
-        <v>304.7910147513094</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E30" t="n">
-        <v>304.7910147513094</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3632984685535</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3632984685535</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3632984685535</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.9137287543216</v>
+        <v>73.91372875432158</v>
       </c>
       <c r="L30" t="n">
         <v>191.28529372614</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740712</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622848</v>
+        <v>793.3606943740712</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622848</v>
+        <v>657.291362706966</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622848</v>
+        <v>657.291362706966</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210015</v>
+        <v>655.7729563656826</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009031</v>
+        <v>631.7718644455841</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601258</v>
+        <v>388.6921463492182</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460057</v>
+        <v>334.9167858350982</v>
       </c>
       <c r="X30" t="n">
-        <v>675.8088775182907</v>
+        <v>261.5623547866892</v>
       </c>
       <c r="Y30" t="n">
-        <v>494.2032890183457</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L31" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M31" t="n">
-        <v>71.41321716505087</v>
+        <v>180.8898523171613</v>
       </c>
       <c r="N31" t="n">
-        <v>71.41321716505087</v>
+        <v>180.8898523171613</v>
       </c>
       <c r="O31" t="n">
-        <v>71.41321716505087</v>
+        <v>180.8898523171613</v>
       </c>
       <c r="P31" t="n">
-        <v>224.8697584449406</v>
+        <v>180.8898523171613</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.3464833623374</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177467</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757517</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695576</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398197</v>
+        <v>48.17092928398202</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792731</v>
+        <v>882.8924400792727</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962482</v>
+        <v>757.3316491962478</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471533</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693953</v>
+        <v>406.0748730693949</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577065</v>
+        <v>198.6295596577061</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662754</v>
+        <v>63.72957914662751</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847217</v>
@@ -6704,19 +6704,19 @@
         <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946299</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191341</v>
+        <v>926.341364319135</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153726</v>
       </c>
       <c r="O32" t="n">
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870716</v>
@@ -6728,10 +6728,10 @@
         <v>1781.898883169498</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6740,7 +6740,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K33" t="n">
-        <v>73.9137287543216</v>
+        <v>73.91372875432158</v>
       </c>
       <c r="L33" t="n">
         <v>191.28529372614</v>
@@ -6810,19 +6810,19 @@
         <v>791.8422880327877</v>
       </c>
       <c r="U33" t="n">
-        <v>562.3022190248905</v>
+        <v>562.3022190248904</v>
       </c>
       <c r="V33" t="n">
         <v>319.2225009285245</v>
       </c>
       <c r="W33" t="n">
-        <v>49.82393165881587</v>
+        <v>49.8239316588158</v>
       </c>
       <c r="X33" t="n">
-        <v>45.93914603110071</v>
+        <v>45.93914603110068</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F34" t="n">
-        <v>109.716355227107</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G34" t="n">
-        <v>109.716355227107</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H34" t="n">
-        <v>109.716355227107</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I34" t="n">
-        <v>157.8487111460599</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J34" t="n">
-        <v>250.1543562827142</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K34" t="n">
-        <v>250.1543562827142</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L34" t="n">
-        <v>250.1543562827142</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M34" t="n">
-        <v>250.1543562827142</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="N34" t="n">
-        <v>250.1543562827142</v>
+        <v>82.09718027320798</v>
       </c>
       <c r="O34" t="n">
-        <v>250.1543562827142</v>
+        <v>256.3464833623383</v>
       </c>
       <c r="P34" t="n">
-        <v>250.1543562827142</v>
+        <v>256.3464833623383</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224446</v>
+        <v>256.3464833623383</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224446</v>
+        <v>266.2898381224444</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177475</v>
+        <v>244.0994937177474</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757524</v>
+        <v>233.7015767757522</v>
       </c>
       <c r="U34" t="n">
-        <v>157.752514069558</v>
+        <v>157.7525140695579</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024699</v>
+        <v>125.7908590024698</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398225</v>
+        <v>48.17092928398219</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063889</v>
+        <v>39.63307197063886</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144258</v>
+        <v>244.8128742144261</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589363</v>
@@ -6938,25 +6938,25 @@
         <v>214.1901826957315</v>
       </c>
       <c r="K35" t="n">
-        <v>472.0439932256141</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="L35" t="n">
-        <v>518.8173314559083</v>
+        <v>260.9635209260256</v>
       </c>
       <c r="M35" t="n">
-        <v>776.6711419857909</v>
+        <v>497.1633967995268</v>
       </c>
       <c r="N35" t="n">
-        <v>931.1296478599029</v>
+        <v>572.550646732765</v>
       </c>
       <c r="O35" t="n">
-        <v>965.4063314933326</v>
+        <v>606.8273303661947</v>
       </c>
       <c r="P35" t="n">
-        <v>965.4063314933326</v>
+        <v>861.2731942892278</v>
       </c>
       <c r="Q35" t="n">
-        <v>965.4063314933326</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="R35" t="n">
         <v>1041.833577898516</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.6167877969386</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="C36" t="n">
-        <v>181.6167877969386</v>
+        <v>42.1298044991405</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83667155797032</v>
+        <v>42.1298044991405</v>
       </c>
       <c r="E36" t="n">
         <v>20.83667155797032</v>
@@ -7038,28 +7038,28 @@
         <v>778.2757042100246</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100246</v>
+        <v>642.2063725429194</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100246</v>
+        <v>448.6836938630488</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100246</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="U36" t="n">
-        <v>538.6514035343375</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="V36" t="n">
-        <v>360.1526407238737</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="W36" t="n">
-        <v>360.1526407238737</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="X36" t="n">
-        <v>360.1526407238737</v>
+        <v>231.5420787661768</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.1526407238737</v>
+        <v>231.5420787661768</v>
       </c>
     </row>
     <row r="37">
@@ -7093,28 +7093,28 @@
         <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
         <v>56.03657271633976</v>
@@ -7157,10 +7157,10 @@
         <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590286</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589363</v>
@@ -7169,40 +7169,40 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>46.9061485340365</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>46.9061485340365</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K38" t="n">
-        <v>304.7599590639192</v>
+        <v>97.33984198878781</v>
       </c>
       <c r="L38" t="n">
-        <v>351.5332972942132</v>
+        <v>144.1131802190819</v>
       </c>
       <c r="M38" t="n">
-        <v>609.3871078240959</v>
+        <v>225.0334909422338</v>
       </c>
       <c r="N38" t="n">
-        <v>684.7743577573341</v>
+        <v>482.8873014721165</v>
       </c>
       <c r="O38" t="n">
-        <v>719.0510413907638</v>
+        <v>740.7411120019991</v>
       </c>
       <c r="P38" t="n">
-        <v>719.0510413907638</v>
+        <v>740.7411120019991</v>
       </c>
       <c r="Q38" t="n">
-        <v>899.6114250000518</v>
+        <v>921.3014956112871</v>
       </c>
       <c r="R38" t="n">
-        <v>976.038671405235</v>
+        <v>997.7287420164704</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>224.0716304839432</v>
+        <v>51.50483797756914</v>
       </c>
       <c r="C39" t="n">
-        <v>224.0716304839432</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>224.0716304839432</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>224.0716304839432</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>224.0716304839432</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>73.82473685802547</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>73.82473685802547</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>73.82473685802547</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
         <v>20.83667155797032</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100246</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100246</v>
+        <v>771.3600410982383</v>
       </c>
       <c r="R39" t="n">
-        <v>642.2063725429194</v>
+        <v>771.3600410982383</v>
       </c>
       <c r="S39" t="n">
-        <v>642.2063725429194</v>
+        <v>771.3600410982383</v>
       </c>
       <c r="T39" t="n">
-        <v>642.2063725429194</v>
+        <v>554.2184260013663</v>
       </c>
       <c r="U39" t="n">
-        <v>642.2063725429194</v>
+        <v>314.5941253256792</v>
       </c>
       <c r="V39" t="n">
-        <v>628.2481764755507</v>
+        <v>314.5941253256792</v>
       </c>
       <c r="W39" t="n">
-        <v>628.2481764755507</v>
+        <v>51.50483797756914</v>
       </c>
       <c r="X39" t="n">
-        <v>628.2481764755507</v>
+        <v>51.50483797756914</v>
       </c>
       <c r="Y39" t="n">
-        <v>402.6074834108783</v>
+        <v>51.50483797756914</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P40" t="n">
         <v>56.03657271633976</v>
@@ -7375,7 +7375,7 @@
         <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7421,19 +7421,19 @@
         <v>632.9364440824947</v>
       </c>
       <c r="N41" t="n">
-        <v>946.9105407849462</v>
+        <v>738.7426878216887</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.386752853587</v>
+        <v>1011.606218224332</v>
       </c>
       <c r="P41" t="n">
-        <v>1326.080383469424</v>
+        <v>1235.299848840169</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
         <v>1385.107999142262</v>
@@ -7509,22 +7509,22 @@
         <v>785.5081342426766</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426766</v>
+        <v>778.5924711308903</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426766</v>
+        <v>642.5231394637851</v>
       </c>
       <c r="S42" t="n">
-        <v>591.985455562806</v>
+        <v>540.547388956697</v>
       </c>
       <c r="T42" t="n">
-        <v>374.843840465934</v>
+        <v>540.547388956697</v>
       </c>
       <c r="U42" t="n">
-        <v>135.219539790247</v>
+        <v>540.547388956697</v>
       </c>
       <c r="V42" t="n">
-        <v>54.03654468013185</v>
+        <v>297.467670860331</v>
       </c>
       <c r="W42" t="n">
         <v>28.06910159062234</v>
@@ -7555,34 +7555,34 @@
         <v>28.06910159062234</v>
       </c>
       <c r="F43" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G43" t="n">
-        <v>129.1183349635734</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085604</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="P43" t="n">
         <v>130.1759968085604</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06910159062234</v>
+        <v>422.639621167311</v>
       </c>
       <c r="L44" t="n">
-        <v>284.8206647232474</v>
+        <v>707.9998061668183</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3278222156125</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N44" t="n">
-        <v>679.7150721488508</v>
+        <v>1102.894213592422</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514939</v>
+        <v>1194.619313556187</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167331</v>
+        <v>1194.619313556187</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469424</v>
+        <v>1344.427463858279</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1390.102476956267</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>380.3916413896961</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="C45" t="n">
-        <v>380.3916413896961</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="D45" t="n">
-        <v>380.3916413896961</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E45" t="n">
-        <v>206.8284375111106</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F45" t="n">
-        <v>178.3159952165401</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G45" t="n">
         <v>28.06910159062234</v>
@@ -7746,31 +7746,31 @@
         <v>785.5081342426768</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426768</v>
+        <v>778.5924711308904</v>
       </c>
       <c r="R45" t="n">
-        <v>649.4388025755716</v>
+        <v>778.5924711308904</v>
       </c>
       <c r="S45" t="n">
-        <v>649.4388025755716</v>
+        <v>585.0697924510198</v>
       </c>
       <c r="T45" t="n">
-        <v>649.4388025755716</v>
+        <v>585.0697924510198</v>
       </c>
       <c r="U45" t="n">
-        <v>649.4388025755716</v>
+        <v>458.2130906717393</v>
       </c>
       <c r="V45" t="n">
-        <v>406.3590844792056</v>
+        <v>458.2130906717393</v>
       </c>
       <c r="W45" t="n">
-        <v>380.3916413896961</v>
+        <v>432.2456475822298</v>
       </c>
       <c r="X45" t="n">
-        <v>380.3916413896961</v>
+        <v>432.2456475822298</v>
       </c>
       <c r="Y45" t="n">
-        <v>380.3916413896961</v>
+        <v>206.6049545175574</v>
       </c>
     </row>
     <row r="46">
@@ -7789,49 +7789,49 @@
         <v>28.06910159062234</v>
       </c>
       <c r="E46" t="n">
-        <v>126.3965685597328</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="G46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="H46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="I46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="J46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="K46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="L46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="M46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="N46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="O46" t="n">
-        <v>126.3965685597328</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085604</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085604</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085604</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085604</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085604</v>
@@ -8778,10 +8778,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.154752904144</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9015,10 +9015,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041439</v>
+        <v>292.154752904144</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841508</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041439</v>
+        <v>292.154752904144</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9720,13 +9720,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566414</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.154752904144</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696332</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>90.19989376348292</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>121.7610808981511</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
         <v>240.5081876210496</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718764</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065502</v>
+        <v>44.13476116065505</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938946</v>
+        <v>15.39354104331292</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.195214002696417</v>
+        <v>7.195214002696446</v>
       </c>
       <c r="C14" t="n">
         <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
         <v>193.149262737081</v>
@@ -23507,13 +23507,13 @@
         <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210496</v>
+        <v>240.5081876210497</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384206</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065511</v>
+        <v>44.13476116065514</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673109</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>72.86477962755242</v>
+        <v>159.5668145012118</v>
       </c>
       <c r="X14" t="n">
-        <v>181.453064970151</v>
+        <v>87.01235375630588</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938948</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875013.3137267553</v>
+        <v>875013.3137267554</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>595304.0967441107</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441105</v>
+        <v>595304.0967441103</v>
       </c>
       <c r="D2" t="n">
-        <v>595304.0967441105</v>
+        <v>595304.0967441107</v>
       </c>
       <c r="E2" t="n">
-        <v>512993.3100888237</v>
+        <v>512993.3100888238</v>
       </c>
       <c r="F2" t="n">
         <v>512993.3100888237</v>
       </c>
       <c r="G2" t="n">
-        <v>596510.0204795118</v>
+        <v>596510.0204795123</v>
       </c>
       <c r="H2" t="n">
-        <v>596510.0204795118</v>
+        <v>596510.0204795121</v>
       </c>
       <c r="I2" t="n">
         <v>596510.0204795119</v>
       </c>
       <c r="J2" t="n">
-        <v>596510.0204795121</v>
+        <v>596510.0204795119</v>
       </c>
       <c r="K2" t="n">
         <v>596510.0204795118</v>
       </c>
       <c r="L2" t="n">
-        <v>596510.0204795118</v>
+        <v>596510.0204795121</v>
       </c>
       <c r="M2" t="n">
-        <v>596510.0204795115</v>
+        <v>596510.0204795119</v>
       </c>
       <c r="N2" t="n">
         <v>596510.0204795116</v>
       </c>
       <c r="O2" t="n">
-        <v>596510.0204795115</v>
+        <v>596510.0204795117</v>
       </c>
       <c r="P2" t="n">
         <v>596510.0204795117</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842066</v>
+        <v>280312.8421842065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400481</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400469</v>
+        <v>95275.95397400476</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145974</v>
+        <v>46874.16014145972</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660006</v>
+        <v>72403.48181660011</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>435522.6386213152</v>
       </c>
       <c r="E4" t="n">
-        <v>325346.2938622804</v>
+        <v>325346.2938622803</v>
       </c>
       <c r="F4" t="n">
         <v>325346.2938622803</v>
@@ -26442,16 +26442,16 @@
         <v>396695.6540483333</v>
       </c>
       <c r="K4" t="n">
-        <v>396695.6540483333</v>
+        <v>396695.6540483334</v>
       </c>
       <c r="L4" t="n">
-        <v>396695.6540483333</v>
+        <v>396695.6540483332</v>
       </c>
       <c r="M4" t="n">
         <v>395870.627070532</v>
       </c>
       <c r="N4" t="n">
-        <v>395870.627070532</v>
+        <v>395870.6270705319</v>
       </c>
       <c r="O4" t="n">
         <v>396257.8704432697</v>
@@ -26491,13 +26491,13 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951491</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951491</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126153.8581227954</v>
+        <v>126149.3917385902</v>
       </c>
       <c r="C6" t="n">
-        <v>126153.8581227952</v>
+        <v>126149.3917385898</v>
       </c>
       <c r="D6" t="n">
-        <v>126153.8581227952</v>
+        <v>126149.3917385902</v>
       </c>
       <c r="E6" t="n">
-        <v>-121329.7720806819</v>
+        <v>-121639.0932302769</v>
       </c>
       <c r="F6" t="n">
-        <v>158983.0701035248</v>
+        <v>158673.7489539297</v>
       </c>
       <c r="G6" t="n">
-        <v>66748.65739719983</v>
+        <v>66748.6573972003</v>
       </c>
       <c r="H6" t="n">
-        <v>162024.6113712047</v>
+        <v>162024.6113712049</v>
       </c>
       <c r="I6" t="n">
         <v>162024.6113712048</v>
       </c>
       <c r="J6" t="n">
-        <v>8715.58642732264</v>
+        <v>8715.586427322472</v>
       </c>
       <c r="K6" t="n">
         <v>152360.5899516636</v>
       </c>
       <c r="L6" t="n">
-        <v>57084.63597765891</v>
+        <v>57084.63597765915</v>
       </c>
       <c r="M6" t="n">
-        <v>112850.2196015147</v>
+        <v>112850.2196015153</v>
       </c>
       <c r="N6" t="n">
         <v>159724.3797429746</v>
       </c>
       <c r="O6" t="n">
-        <v>84048.4314681167</v>
+        <v>84048.43146811693</v>
       </c>
       <c r="P6" t="n">
         <v>156451.913284717</v>
@@ -26695,7 +26695,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26811,13 +26811,13 @@
         <v>188.5623770505817</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252108</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252107</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252107</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
         <v>260.458394474629</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052674</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682468</v>
+        <v>58.59270017682465</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406661</v>
+        <v>63.30917227406667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052674</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,10 +28114,10 @@
         <v>76.75309993802776</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245552</v>
+        <v>6.684449518273084</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
         <v>106.8246894514384</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>139.7516048372062</v>
+        <v>6.794227140745043</v>
       </c>
       <c r="P11" t="n">
-        <v>15.04365268017737</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705461</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490142</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>26.40782189532155</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>126.5005488796959</v>
       </c>
       <c r="V12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>78.14220652642985</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>95.42751465468841</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.82190908344387</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="13">
@@ -28248,16 +28248,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.3296493245552</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7006242014745</v>
@@ -28272,10 +28272,10 @@
         <v>120.2289512774727</v>
       </c>
       <c r="K13" t="n">
+        <v>131.0721947078055</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32.12940745055721</v>
       </c>
       <c r="M13" t="n">
         <v>178.3296493245552</v>
@@ -28284,7 +28284,7 @@
         <v>16.49709222984356</v>
       </c>
       <c r="O13" t="n">
-        <v>48.47162329453111</v>
+        <v>37.457579608305</v>
       </c>
       <c r="P13" t="n">
         <v>178.3296493245552</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="J14" t="n">
-        <v>76.75309993802776</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245552</v>
+        <v>6.684449518273084</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4136397442805</v>
       </c>
       <c r="O14" t="n">
-        <v>139.7516048372063</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017737</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>112.450268192858</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28454,25 +28454,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490142</v>
       </c>
       <c r="T15" t="n">
-        <v>42.96933000763434</v>
+        <v>26.40782189532155</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W15" t="n">
-        <v>78.14220652642985</v>
+        <v>126.5005488796963</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.82190908344387</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="16">
@@ -28485,73 +28485,73 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774727</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587061</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="L16" t="n">
-        <v>84.76572402477576</v>
+        <v>75.02464252538815</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="N16" t="n">
         <v>16.49709222984356</v>
       </c>
       <c r="O16" t="n">
-        <v>37.457579608305</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245552</v>
+        <v>58.46036931460874</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J17" t="n">
         <v>76.75309993802776</v>
@@ -28591,7 +28591,7 @@
         <v>6.684449518273084</v>
       </c>
       <c r="L17" t="n">
-        <v>112.0473075972535</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017737</v>
+        <v>203.6060297307591</v>
       </c>
       <c r="Q17" t="n">
         <v>278.2378280274713</v>
       </c>
       <c r="R17" t="n">
+        <v>207.4220449903997</v>
+      </c>
+      <c r="S17" t="n">
         <v>297.4245917920612</v>
-      </c>
-      <c r="S17" t="n">
-        <v>227.5093375700639</v>
       </c>
       <c r="T17" t="n">
         <v>222.4644104852103</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>170.1768345078721</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
         <v>125.7337882414754</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
@@ -28697,7 +28697,7 @@
         <v>26.40782189532155</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834843</v>
       </c>
       <c r="V18" t="n">
         <v>52.0865438648205</v>
@@ -28706,7 +28706,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>28.75053738888886</v>
+        <v>192.7823175644209</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28819,13 +28819,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>76.75309993802776</v>
+        <v>143.3662903497519</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2468265688548</v>
+        <v>6.684449518273084</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017737</v>
+        <v>203.6060297307591</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.502041556172</v>
+        <v>89.67545097688958</v>
       </c>
       <c r="R20" t="n">
         <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,7 +28895,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
         <v>107.3572203790713</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>81.50057670662547</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>26.4078218953216</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834843</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>225.4391814911797</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344387</v>
       </c>
     </row>
     <row r="22">
@@ -29059,22 +29059,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>195.0414298591724</v>
+        <v>76.75309993802776</v>
       </c>
       <c r="K23" t="n">
         <v>6.684449518273084</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442805</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895416</v>
+        <v>153.9394642895415</v>
       </c>
       <c r="P23" t="n">
         <v>15.04365268017737</v>
@@ -29083,16 +29083,16 @@
         <v>89.67545097688958</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>261.60464981758</v>
       </c>
       <c r="T23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29126,10 +29126,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>87.62838340328693</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
         <v>125.7337882414754</v>
@@ -29165,22 +29165,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490199</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9701989459033</v>
+        <v>26.4078218953216</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834842</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>52.0865438648205</v>
+        <v>52.08654386482056</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>185.9358110837524</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29354,10 +29354,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>106.4903970136568</v>
+        <v>88.8732267681804</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5874518930719</v>
@@ -29408,13 +29408,13 @@
         <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V27" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.4669766680327</v>
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>199.8390178407638</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
@@ -29463,7 +29463,7 @@
         <v>32.12940745055721</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374667</v>
+        <v>102.8817587875216</v>
       </c>
       <c r="N28" t="n">
         <v>16.49709222984356</v>
@@ -29472,10 +29472,10 @@
         <v>37.457579608305</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460874</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.4669766680327</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
         <v>203.4231839810568</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29609,7 +29609,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
         <v>52.45818464705461</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668449</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
@@ -29648,16 +29648,16 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>144.6920277015457</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.59475351908003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29700,7 +29700,7 @@
         <v>32.12940745055721</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374667</v>
+        <v>171.6257542164178</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984356</v>
@@ -29709,13 +29709,13 @@
         <v>37.457579608305</v>
       </c>
       <c r="P31" t="n">
+        <v>58.46036931460874</v>
+      </c>
+      <c r="Q31" t="n">
         <v>213.4669766680327</v>
       </c>
-      <c r="Q31" t="n">
-        <v>158.9990363772392</v>
-      </c>
       <c r="R31" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810568</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680327</v>
@@ -29779,7 +29779,7 @@
         <v>213.4669766680326</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680326</v>
+        <v>213.4669766680334</v>
       </c>
       <c r="N32" t="n">
         <v>213.4669766680326</v>
@@ -29791,7 +29791,7 @@
         <v>213.4669766680326</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680337</v>
+        <v>213.4669766680326</v>
       </c>
       <c r="R32" t="n">
         <v>213.4669766680326</v>
@@ -29882,7 +29882,7 @@
         <v>213.4669766680326</v>
       </c>
       <c r="U33" t="n">
-        <v>9.98338935111201</v>
+        <v>9.983389351111896</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>213.4669766680326</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7006242014745</v>
@@ -29925,10 +29925,10 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
-        <v>213.4669766680326</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>213.4669766680326</v>
+        <v>120.2289512774727</v>
       </c>
       <c r="K34" t="n">
         <v>67.01246855587061</v>
@@ -29940,19 +29940,19 @@
         <v>25.19323846374667</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984356</v>
+        <v>63.13903016033964</v>
       </c>
       <c r="O34" t="n">
-        <v>37.457579608305</v>
+        <v>213.4669766680326</v>
       </c>
       <c r="P34" t="n">
         <v>58.46036931460874</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.5028312482831</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810568</v>
+        <v>213.4669766680326</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680326</v>
@@ -30010,28 +30010,28 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273084</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7207068754856</v>
+        <v>156.8480456064134</v>
       </c>
       <c r="N35" t="n">
-        <v>79.86995549583206</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017737</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688958</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448573</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S35" t="n">
         <v>227.5093375700639</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>150.7473702280412</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30110,19 +30110,19 @@
         <v>6.846506480668449</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>63.93514573304304</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30165,7 +30165,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>155.7844069929974</v>
+        <v>120.2289512774727</v>
       </c>
       <c r="K37" t="n">
         <v>67.01246855587061</v>
@@ -30189,7 +30189,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810568</v>
+        <v>238.9786396965815</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30241,25 +30241,25 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>267.3296199447267</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
         <v>76.75309993802776</v>
       </c>
       <c r="K38" t="n">
-        <v>267.142843992902</v>
+        <v>83.96037924637156</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7207068754856</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683277</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8354817135888</v>
       </c>
       <c r="P38" t="n">
         <v>15.04365268017737</v>
@@ -30277,7 +30277,7 @@
         <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>157.1566667689631</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
         <v>125.7337882414754</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705461</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>226.8303068087072</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30420,7 +30420,7 @@
         <v>37.457579608305</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460874</v>
+        <v>94.01582503013343</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>252.6967285296931</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30493,22 +30493,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
+        <v>30.72625636965223</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="O41" t="n">
-        <v>122.4237660961724</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.67545097688958</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9968149183972</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
         <v>240.9968149183972</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668449</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>90.63145889105462</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>160.2777557563883</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,13 +30627,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>240.9968149183972</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H43" t="n">
-        <v>166.8914028643323</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I43" t="n">
         <v>164.8484353357569</v>
@@ -30657,7 +30657,7 @@
         <v>37.457579608305</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460874</v>
+        <v>161.598647312526</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30718,13 +30718,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802773</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>6.684449518273048</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>212.0992170730615</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
         <v>240.9968149183972</v>
@@ -30733,10 +30733,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>58.02870336397491</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017734</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30748,7 +30748,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,13 +30782,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5961212483035</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668431</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>111.6399229074425</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>240.9968149183972</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F46" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="F46" t="n">
-        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.7006242014745</v>
@@ -30894,7 +30894,7 @@
         <v>37.45757960830498</v>
       </c>
       <c r="P46" t="n">
-        <v>62.27797360635378</v>
+        <v>58.46036931460873</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286826</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7609144406078</v>
+        <v>224.8292597385745</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6451998062822</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221628</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="M11" t="n">
         <v>188.5623770505817</v>
@@ -35422,13 +35422,13 @@
         <v>76.14873730630127</v>
       </c>
       <c r="O11" t="n">
-        <v>174.3745175982463</v>
+        <v>41.41713990178517</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.2859966443779</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766567</v>
+        <v>88.65419834766564</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515636</v>
       </c>
       <c r="L12" t="n">
         <v>118.5571363351701</v>
@@ -35544,34 +35544,34 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.8724683525829</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233026</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.4027671061086</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818963</v>
+        <v>12.50659175818961</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879838</v>
+        <v>13.48121398879836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686846</v>
+        <v>64.0597261519349</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
         <v>153.1364108608086</v>
@@ -35580,7 +35580,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.01404368622611</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>119.8692800099465</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>47.24579619221628</v>
@@ -35656,16 +35656,16 @@
         <v>188.5623770505817</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630127</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O14" t="n">
-        <v>174.3745175982464</v>
+        <v>34.62291276104013</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766558</v>
+        <v>22.77481721596842</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570689</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578657</v>
@@ -35781,34 +35781,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87246835258281</v>
+        <v>11.87246835258279</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233014</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610851</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080719</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818952</v>
       </c>
       <c r="I16" t="n">
-        <v>13.4812139887983</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708242</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
-        <v>52.63631657421855</v>
+        <v>42.89523507483093</v>
       </c>
       <c r="M16" t="n">
         <v>153.1364108608085</v>
@@ -35817,13 +35817,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.1252845810502</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366397</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>159.2931037894698</v>
+        <v>47.24579619221628</v>
       </c>
       <c r="M17" t="n">
         <v>81.73768759914333</v>
@@ -35899,16 +35899,16 @@
         <v>34.62291276104013</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="Q17" t="n">
         <v>188.5623770505817</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403183</v>
+        <v>12.56160693865677</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.91525422199726</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>183.5573176570689</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505818</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578657</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366397</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>66.61319041172415</v>
       </c>
       <c r="K20" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>47.24579619221628</v>
@@ -36136,22 +36136,22 @@
         <v>34.62291276104013</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.82659057928243</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.91525422199726</v>
       </c>
       <c r="T20" t="n">
         <v>74.9601813068509</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515613</v>
+        <v>38.3758252851563</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5571363351701</v>
+        <v>118.5571363351702</v>
       </c>
       <c r="M21" t="n">
         <v>183.5573176570689</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.2883299211446</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221628</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="M23" t="n">
         <v>81.73768759914333</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5623770505817</v>
+        <v>76.14873730630127</v>
       </c>
       <c r="O23" t="n">
         <v>188.5623770505817</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.09531224751604</v>
       </c>
       <c r="T23" t="n">
         <v>74.9601813068509</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>38.3758252851563</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5571363351701</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M24" t="n">
         <v>183.5573176570689</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.712772860249</v>
       </c>
       <c r="M26" t="n">
         <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743339</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290729</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878553</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628977</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606031</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.28432641732195</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31.13839363928931</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>77.68852032377494</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26261192452769</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>136.713876730005</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497597</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L29" t="n">
         <v>260.712772860249</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671761</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
         <v>289.615713974334</v>
@@ -36847,13 +36847,13 @@
         <v>248.0898894290729</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878554</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7915256911432</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628985</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>146.4325157526712</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.79467163373418</v>
+        <v>86.26261192452775</v>
       </c>
       <c r="R31" t="n">
-        <v>10.0437926869759</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300048</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
@@ -37075,7 +37075,7 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671767</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911442</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628971</v>
+        <v>18.60653861628974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.54009444958595</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.61854133227573</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.23802539055986</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>46.64193793049609</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.0093970597276</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.29846650477815</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.04379268697579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>260.458394474629</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>47.24579619221628</v>
       </c>
       <c r="M35" t="n">
-        <v>260.458394474629</v>
+        <v>238.5857332055567</v>
       </c>
       <c r="N35" t="n">
-        <v>156.0186928021333</v>
+        <v>76.14873730630127</v>
       </c>
       <c r="O35" t="n">
         <v>34.62291276104013</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646799</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679677</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311439</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>35.55545571552469</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>26.33280502632948</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>260.458394474629</v>
+        <v>77.27592972809848</v>
       </c>
       <c r="L38" t="n">
         <v>47.24579619221628</v>
       </c>
       <c r="M38" t="n">
+        <v>81.73768759914333</v>
+      </c>
+      <c r="N38" t="n">
         <v>260.458394474629</v>
       </c>
-      <c r="N38" t="n">
-        <v>76.14873730630127</v>
-      </c>
       <c r="O38" t="n">
-        <v>34.62291276104013</v>
+        <v>260.458394474629</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37573,7 +37573,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357103</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37789,22 +37789,22 @@
         <v>322.7345025175405</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246985</v>
+        <v>106.8749936759535</v>
       </c>
       <c r="O41" t="n">
-        <v>157.0466788572125</v>
+        <v>275.6197276794373</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665429</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833327</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.5324044331869</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.0699326999505</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.068345297966691</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>259.3450132652778</v>
+        <v>288.2426111106135</v>
       </c>
       <c r="M44" t="n">
         <v>322.7345025175405</v>
@@ -38029,10 +38029,10 @@
         <v>76.14873730630133</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794373</v>
+        <v>92.65161612501508</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
@@ -38044,7 +38044,7 @@
         <v>13.48747734833327</v>
       </c>
       <c r="T44" t="n">
-        <v>18.5324044331869</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.32067370617219</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.0699326999505</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>3.81760429174505</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.068345297966691</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
